--- a/Premier_Livrable/Document/Organisation/Matrice_GANTT.xlsx
+++ b/Premier_Livrable/Document/Organisation/Matrice_GANTT.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\uvsq_22_23\sae3\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\j-lbz\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D7D7F255-2B73-436B-8AD2-32F9CF818D21}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8CF6D88D-AEEB-4623-955F-9D83B7401D59}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4890" yWindow="-60" windowWidth="14400" windowHeight="7290" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="61">
   <si>
     <t>Conception</t>
   </si>
@@ -199,6 +199,12 @@
   </si>
   <si>
     <t>Durée du projet</t>
+  </si>
+  <si>
+    <t>T.2, S.2</t>
+  </si>
+  <si>
+    <t>S.1,A.7</t>
   </si>
 </sst>
 </file>
@@ -652,24 +658,24 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AV26"/>
+  <dimension ref="A1:AU26"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="L17" sqref="L17"/>
+    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="B31" sqref="B31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
   <cols>
     <col min="1" max="1" width="20" customWidth="1"/>
-    <col min="2" max="2" width="67.88671875" customWidth="1"/>
-    <col min="3" max="3" width="16.33203125" customWidth="1"/>
+    <col min="2" max="2" width="67.86328125" customWidth="1"/>
+    <col min="3" max="3" width="16.31640625" customWidth="1"/>
     <col min="4" max="4" width="17" customWidth="1"/>
-    <col min="5" max="5" width="18.109375" customWidth="1"/>
-    <col min="7" max="7" width="11.5546875" customWidth="1"/>
-    <col min="8" max="8" width="19.88671875" customWidth="1"/>
+    <col min="5" max="5" width="18.08984375" customWidth="1"/>
+    <col min="7" max="7" width="11.54296875" customWidth="1"/>
+    <col min="8" max="8" width="19.86328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:48" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:47" x14ac:dyDescent="0.75">
       <c r="B1" s="12" t="s">
         <v>2</v>
       </c>
@@ -717,100 +723,94 @@
         <v>9</v>
       </c>
       <c r="R1">
+        <v>10</v>
+      </c>
+      <c r="S1">
         <v>11</v>
       </c>
-      <c r="S1">
+      <c r="T1">
         <v>12</v>
       </c>
-      <c r="T1">
+      <c r="U1">
         <v>13</v>
       </c>
-      <c r="U1">
+      <c r="V1">
         <v>14</v>
       </c>
-      <c r="V1">
+      <c r="W1">
         <v>15</v>
       </c>
-      <c r="W1">
+      <c r="X1">
         <v>16</v>
       </c>
-      <c r="X1">
+      <c r="Y1">
         <v>17</v>
       </c>
-      <c r="Y1">
+      <c r="Z1">
         <v>18</v>
       </c>
-      <c r="Z1">
+      <c r="AA1">
         <v>19</v>
       </c>
-      <c r="AA1">
+      <c r="AB1">
         <v>20</v>
       </c>
-      <c r="AB1">
+      <c r="AC1">
         <v>21</v>
       </c>
-      <c r="AC1">
+      <c r="AD1">
         <v>22</v>
       </c>
-      <c r="AD1">
+      <c r="AE1">
         <v>23</v>
       </c>
-      <c r="AE1">
+      <c r="AF1">
         <v>24</v>
       </c>
-      <c r="AF1">
+      <c r="AG1">
         <v>25</v>
       </c>
-      <c r="AG1">
+      <c r="AH1">
         <v>26</v>
       </c>
-      <c r="AH1">
+      <c r="AI1">
         <v>27</v>
       </c>
-      <c r="AI1">
+      <c r="AJ1">
         <v>28</v>
       </c>
-      <c r="AJ1">
+      <c r="AK1">
         <v>29</v>
       </c>
-      <c r="AK1">
+      <c r="AL1">
         <v>30</v>
       </c>
-      <c r="AL1">
+      <c r="AM1">
         <v>31</v>
       </c>
-      <c r="AM1">
+      <c r="AN1">
         <v>32</v>
       </c>
-      <c r="AN1">
+      <c r="AO1">
         <v>33</v>
       </c>
-      <c r="AO1">
+      <c r="AP1">
         <v>34</v>
       </c>
-      <c r="AP1">
+      <c r="AQ1">
         <v>35</v>
       </c>
-      <c r="AQ1">
+      <c r="AR1">
         <v>36</v>
       </c>
-      <c r="AR1">
+      <c r="AS1">
         <v>37</v>
       </c>
-      <c r="AS1">
-        <v>38</v>
-      </c>
-      <c r="AT1">
-        <v>39</v>
-      </c>
-      <c r="AU1">
-        <v>40</v>
-      </c>
-      <c r="AV1" s="14" t="s">
+      <c r="AT1" s="14" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="2" spans="1:48" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:47" x14ac:dyDescent="0.75">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
@@ -835,9 +835,9 @@
       </c>
       <c r="I2" s="3"/>
       <c r="J2" s="3"/>
-      <c r="AV2" s="14"/>
-    </row>
-    <row r="3" spans="1:48" x14ac:dyDescent="0.3">
+      <c r="AT2" s="14"/>
+    </row>
+    <row r="3" spans="1:47" x14ac:dyDescent="0.75">
       <c r="A3" s="2"/>
       <c r="B3" s="3" t="s">
         <v>15</v>
@@ -865,9 +865,9 @@
       <c r="O3" s="3"/>
       <c r="P3" s="3"/>
       <c r="Q3" s="3"/>
-      <c r="AV3" s="14"/>
-    </row>
-    <row r="4" spans="1:48" x14ac:dyDescent="0.3">
+      <c r="AT3" s="14"/>
+    </row>
+    <row r="4" spans="1:47" x14ac:dyDescent="0.75">
       <c r="A4" s="2"/>
       <c r="B4" s="3" t="s">
         <v>6</v>
@@ -890,9 +890,9 @@
       </c>
       <c r="R4" s="3"/>
       <c r="S4" s="3"/>
-      <c r="AV4" s="14"/>
-    </row>
-    <row r="5" spans="1:48" x14ac:dyDescent="0.3">
+      <c r="AT4" s="14"/>
+    </row>
+    <row r="5" spans="1:47" x14ac:dyDescent="0.75">
       <c r="A5" s="2"/>
       <c r="B5" s="3" t="s">
         <v>7</v>
@@ -917,9 +917,9 @@
       <c r="U5" s="3"/>
       <c r="V5" s="13"/>
       <c r="W5" s="13"/>
-      <c r="AV5" s="14"/>
-    </row>
-    <row r="6" spans="1:48" x14ac:dyDescent="0.3">
+      <c r="AT5" s="14"/>
+    </row>
+    <row r="6" spans="1:47" x14ac:dyDescent="0.75">
       <c r="A6" s="2"/>
       <c r="B6" s="3" t="s">
         <v>48</v>
@@ -942,9 +942,9 @@
       </c>
       <c r="V6" s="3"/>
       <c r="W6" s="3"/>
-      <c r="AV6" s="14"/>
-    </row>
-    <row r="7" spans="1:48" x14ac:dyDescent="0.3">
+      <c r="AT6" s="14"/>
+    </row>
+    <row r="7" spans="1:47" x14ac:dyDescent="0.75">
       <c r="A7" s="2"/>
       <c r="B7" s="3" t="s">
         <v>8</v>
@@ -966,9 +966,9 @@
         <v>34</v>
       </c>
       <c r="I7" s="3"/>
-      <c r="AV7" s="14"/>
-    </row>
-    <row r="8" spans="1:48" x14ac:dyDescent="0.3">
+      <c r="AT7" s="14"/>
+    </row>
+    <row r="8" spans="1:47" x14ac:dyDescent="0.75">
       <c r="A8" s="2"/>
       <c r="B8" s="3" t="s">
         <v>26</v>
@@ -977,7 +977,7 @@
         <v>35</v>
       </c>
       <c r="D8" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E8" s="3" t="s">
         <v>33</v>
@@ -990,10 +990,10 @@
         <v>35</v>
       </c>
       <c r="X8" s="3"/>
-      <c r="Y8" s="3"/>
-      <c r="AV8" s="14"/>
-    </row>
-    <row r="9" spans="1:48" x14ac:dyDescent="0.3">
+      <c r="Y8" s="13"/>
+      <c r="AT8" s="14"/>
+    </row>
+    <row r="9" spans="1:47" x14ac:dyDescent="0.75">
       <c r="A9" s="2"/>
       <c r="B9" s="3" t="s">
         <v>56</v>
@@ -1051,16 +1051,15 @@
       <c r="AQ9" s="3"/>
       <c r="AR9" s="3"/>
       <c r="AS9" s="3"/>
-      <c r="AT9" s="3"/>
-      <c r="AU9" s="3"/>
-      <c r="AV9" s="14"/>
-    </row>
-    <row r="10" spans="1:48" x14ac:dyDescent="0.3">
+      <c r="AT9" s="14"/>
+      <c r="AU9" s="13"/>
+    </row>
+    <row r="10" spans="1:47" x14ac:dyDescent="0.75">
       <c r="A10" s="1"/>
       <c r="G10" s="14"/>
-      <c r="AV10" s="14"/>
-    </row>
-    <row r="11" spans="1:48" x14ac:dyDescent="0.3">
+      <c r="AT10" s="14"/>
+    </row>
+    <row r="11" spans="1:47" x14ac:dyDescent="0.75">
       <c r="A11" s="4" t="s">
         <v>23</v>
       </c>
@@ -1083,10 +1082,10 @@
       <c r="H11" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="Z11" s="5"/>
-      <c r="AV11" s="14"/>
-    </row>
-    <row r="12" spans="1:48" x14ac:dyDescent="0.3">
+      <c r="X11" s="5"/>
+      <c r="AT11" s="14"/>
+    </row>
+    <row r="12" spans="1:47" x14ac:dyDescent="0.75">
       <c r="A12" s="4"/>
       <c r="B12" s="5" t="s">
         <v>18</v>
@@ -1107,16 +1106,16 @@
       <c r="H12" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="AA12" s="5"/>
-      <c r="AB12" s="5"/>
-      <c r="AV12" s="14"/>
-    </row>
-    <row r="13" spans="1:48" x14ac:dyDescent="0.3">
+      <c r="Y12" s="5"/>
+      <c r="Z12" s="5"/>
+      <c r="AT12" s="14"/>
+    </row>
+    <row r="13" spans="1:47" x14ac:dyDescent="0.75">
       <c r="A13" s="1"/>
       <c r="G13" s="14"/>
-      <c r="AV13" s="14"/>
-    </row>
-    <row r="14" spans="1:48" x14ac:dyDescent="0.3">
+      <c r="AT13" s="14"/>
+    </row>
+    <row r="14" spans="1:47" x14ac:dyDescent="0.75">
       <c r="A14" s="6" t="s">
         <v>0</v>
       </c>
@@ -1130,7 +1129,7 @@
         <v>3</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>36</v>
+        <v>60</v>
       </c>
       <c r="F14" s="7">
         <v>6</v>
@@ -1140,12 +1139,12 @@
         <v>38</v>
       </c>
       <c r="I14" s="13"/>
+      <c r="Y14" s="7"/>
+      <c r="Z14" s="7"/>
       <c r="AA14" s="7"/>
-      <c r="AB14" s="7"/>
-      <c r="AC14" s="7"/>
-      <c r="AV14" s="14"/>
-    </row>
-    <row r="15" spans="1:48" x14ac:dyDescent="0.3">
+      <c r="AT14" s="14"/>
+    </row>
+    <row r="15" spans="1:47" x14ac:dyDescent="0.75">
       <c r="A15" s="6"/>
       <c r="B15" s="7" t="s">
         <v>10</v>
@@ -1166,17 +1165,17 @@
       <c r="H15" s="7" t="s">
         <v>30</v>
       </c>
+      <c r="AB15" s="7"/>
+      <c r="AC15" s="7"/>
       <c r="AD15" s="7"/>
-      <c r="AE15" s="7"/>
-      <c r="AF15" s="7"/>
-      <c r="AV15" s="14"/>
-    </row>
-    <row r="16" spans="1:48" x14ac:dyDescent="0.3">
+      <c r="AT15" s="14"/>
+    </row>
+    <row r="16" spans="1:47" x14ac:dyDescent="0.75">
       <c r="A16" s="1"/>
       <c r="G16" s="14"/>
-      <c r="AV16" s="14"/>
-    </row>
-    <row r="17" spans="1:48" x14ac:dyDescent="0.3">
+      <c r="AT16" s="14"/>
+    </row>
+    <row r="17" spans="1:46" x14ac:dyDescent="0.75">
       <c r="A17" s="8" t="s">
         <v>25</v>
       </c>
@@ -1199,14 +1198,14 @@
       <c r="H17" s="9" t="s">
         <v>39</v>
       </c>
+      <c r="AE17" s="9"/>
+      <c r="AF17" s="9"/>
       <c r="AG17" s="9"/>
       <c r="AH17" s="9"/>
       <c r="AI17" s="9"/>
-      <c r="AJ17" s="9"/>
-      <c r="AK17" s="9"/>
-      <c r="AV17" s="14"/>
-    </row>
-    <row r="18" spans="1:48" x14ac:dyDescent="0.3">
+      <c r="AT17" s="14"/>
+    </row>
+    <row r="18" spans="1:46" x14ac:dyDescent="0.75">
       <c r="A18" s="8"/>
       <c r="B18" s="9" t="s">
         <v>11</v>
@@ -1227,14 +1226,14 @@
       <c r="H18" s="9" t="s">
         <v>40</v>
       </c>
+      <c r="AE18" s="9"/>
+      <c r="AF18" s="9"/>
       <c r="AG18" s="9"/>
       <c r="AH18" s="9"/>
       <c r="AI18" s="9"/>
-      <c r="AJ18" s="9"/>
-      <c r="AK18" s="9"/>
-      <c r="AV18" s="14"/>
-    </row>
-    <row r="19" spans="1:48" x14ac:dyDescent="0.3">
+      <c r="AT18" s="14"/>
+    </row>
+    <row r="19" spans="1:46" x14ac:dyDescent="0.75">
       <c r="A19" s="8"/>
       <c r="B19" s="9" t="s">
         <v>12</v>
@@ -1255,14 +1254,14 @@
       <c r="H19" s="9" t="s">
         <v>41</v>
       </c>
+      <c r="AE19" s="9"/>
+      <c r="AF19" s="9"/>
       <c r="AG19" s="9"/>
       <c r="AH19" s="9"/>
       <c r="AI19" s="9"/>
-      <c r="AJ19" s="9"/>
-      <c r="AK19" s="9"/>
-      <c r="AV19" s="14"/>
-    </row>
-    <row r="20" spans="1:48" x14ac:dyDescent="0.3">
+      <c r="AT19" s="14"/>
+    </row>
+    <row r="20" spans="1:46" x14ac:dyDescent="0.75">
       <c r="A20" s="8"/>
       <c r="B20" s="9" t="s">
         <v>13</v>
@@ -1283,12 +1282,12 @@
       <c r="H20" s="9" t="s">
         <v>42</v>
       </c>
+      <c r="AE20" s="9"/>
+      <c r="AF20" s="9"/>
       <c r="AG20" s="9"/>
-      <c r="AH20" s="9"/>
-      <c r="AI20" s="9"/>
-      <c r="AV20" s="14"/>
-    </row>
-    <row r="21" spans="1:48" x14ac:dyDescent="0.3">
+      <c r="AT20" s="14"/>
+    </row>
+    <row r="21" spans="1:46" x14ac:dyDescent="0.75">
       <c r="A21" s="8"/>
       <c r="B21" s="9" t="s">
         <v>14</v>
@@ -1309,16 +1308,16 @@
       <c r="H21" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="AG21" s="9"/>
-      <c r="AH21" s="9"/>
-      <c r="AV21" s="14"/>
-    </row>
-    <row r="22" spans="1:48" x14ac:dyDescent="0.3">
+      <c r="AE21" s="9"/>
+      <c r="AF21" s="9"/>
+      <c r="AT21" s="14"/>
+    </row>
+    <row r="22" spans="1:46" x14ac:dyDescent="0.75">
       <c r="A22" s="1"/>
       <c r="G22" s="14"/>
-      <c r="AV22" s="14"/>
-    </row>
-    <row r="23" spans="1:48" x14ac:dyDescent="0.3">
+      <c r="AT22" s="14"/>
+    </row>
+    <row r="23" spans="1:46" x14ac:dyDescent="0.75">
       <c r="A23" s="10" t="s">
         <v>24</v>
       </c>
@@ -1341,14 +1340,14 @@
       <c r="H23" s="11" t="s">
         <v>44</v>
       </c>
+      <c r="AJ23" s="11"/>
+      <c r="AK23" s="11"/>
       <c r="AL23" s="11"/>
       <c r="AM23" s="11"/>
       <c r="AN23" s="11"/>
-      <c r="AO23" s="11"/>
-      <c r="AP23" s="11"/>
-      <c r="AV23" s="14"/>
-    </row>
-    <row r="24" spans="1:48" x14ac:dyDescent="0.3">
+      <c r="AT23" s="14"/>
+    </row>
+    <row r="24" spans="1:46" x14ac:dyDescent="0.75">
       <c r="A24" s="11"/>
       <c r="B24" s="11" t="s">
         <v>21</v>
@@ -1369,12 +1368,12 @@
       <c r="H24" s="11" t="s">
         <v>45</v>
       </c>
+      <c r="AO24" s="11"/>
+      <c r="AP24" s="11"/>
       <c r="AQ24" s="11"/>
-      <c r="AR24" s="11"/>
-      <c r="AS24" s="11"/>
-      <c r="AV24" s="14"/>
-    </row>
-    <row r="25" spans="1:48" x14ac:dyDescent="0.3">
+      <c r="AT24" s="14"/>
+    </row>
+    <row r="25" spans="1:46" x14ac:dyDescent="0.75">
       <c r="A25" s="11"/>
       <c r="B25" s="11" t="s">
         <v>22</v>
@@ -1386,7 +1385,7 @@
         <v>2</v>
       </c>
       <c r="E25" s="11" t="s">
-        <v>45</v>
+        <v>59</v>
       </c>
       <c r="F25" s="11">
         <v>11</v>
@@ -1395,11 +1394,11 @@
       <c r="H25" s="11" t="s">
         <v>46</v>
       </c>
-      <c r="AT25" s="11"/>
-      <c r="AU25" s="11"/>
-      <c r="AV25" s="14"/>
-    </row>
-    <row r="26" spans="1:48" x14ac:dyDescent="0.3">
+      <c r="AR25" s="11"/>
+      <c r="AS25" s="11"/>
+      <c r="AT25" s="14"/>
+    </row>
+    <row r="26" spans="1:46" x14ac:dyDescent="0.75">
       <c r="A26" s="15" t="s">
         <v>55</v>
       </c>
@@ -1420,7 +1419,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1432,7 +1431,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Premier_Livrable/Document/Organisation/Matrice_GANTT.xlsx
+++ b/Premier_Livrable/Document/Organisation/Matrice_GANTT.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\j-lbz\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8CF6D88D-AEEB-4623-955F-9D83B7401D59}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE5240AE-BCE3-46EF-844E-CFFA0DAFA27C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="4890" yWindow="-60" windowWidth="14400" windowHeight="7290" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="61">
   <si>
     <t>Conception</t>
   </si>
@@ -660,8 +660,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AU26"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="B31" sqref="B31"/>
+    <sheetView tabSelected="1" topLeftCell="O1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="AA25" sqref="AA25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
@@ -833,7 +833,9 @@
       <c r="H2" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="I2" s="3"/>
+      <c r="I2" s="3" t="s">
+        <v>28</v>
+      </c>
       <c r="J2" s="3"/>
       <c r="AT2" s="14"/>
     </row>
@@ -858,7 +860,9 @@
       <c r="H3" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="K3" s="3"/>
+      <c r="K3" s="3" t="s">
+        <v>29</v>
+      </c>
       <c r="L3" s="3"/>
       <c r="M3" s="3"/>
       <c r="N3" s="3"/>
@@ -888,7 +892,9 @@
       <c r="H4" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="R4" s="3"/>
+      <c r="R4" s="3" t="s">
+        <v>31</v>
+      </c>
       <c r="S4" s="3"/>
       <c r="AT4" s="14"/>
     </row>
@@ -913,7 +919,9 @@
       <c r="H5" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="T5" s="3"/>
+      <c r="T5" s="3" t="s">
+        <v>32</v>
+      </c>
       <c r="U5" s="3"/>
       <c r="V5" s="13"/>
       <c r="W5" s="13"/>
@@ -940,7 +948,9 @@
       <c r="H6" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="V6" s="3"/>
+      <c r="V6" s="3" t="s">
+        <v>33</v>
+      </c>
       <c r="W6" s="3"/>
       <c r="AT6" s="14"/>
     </row>
@@ -965,7 +975,9 @@
       <c r="H7" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="I7" s="3"/>
+      <c r="I7" s="3" t="s">
+        <v>34</v>
+      </c>
       <c r="AT7" s="14"/>
     </row>
     <row r="8" spans="1:47" x14ac:dyDescent="0.75">
@@ -989,7 +1001,9 @@
       <c r="H8" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="X8" s="3"/>
+      <c r="X8" s="3" t="s">
+        <v>35</v>
+      </c>
       <c r="Y8" s="13"/>
       <c r="AT8" s="14"/>
     </row>
@@ -1014,7 +1028,9 @@
       <c r="H9" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="I9" s="3"/>
+      <c r="I9" s="3" t="s">
+        <v>57</v>
+      </c>
       <c r="J9" s="3"/>
       <c r="K9" s="3"/>
       <c r="L9" s="3"/>
@@ -1082,7 +1098,9 @@
       <c r="H11" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="X11" s="5"/>
+      <c r="X11" s="5" t="s">
+        <v>36</v>
+      </c>
       <c r="AT11" s="14"/>
     </row>
     <row r="12" spans="1:47" x14ac:dyDescent="0.75">
@@ -1106,7 +1124,9 @@
       <c r="H12" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="Y12" s="5"/>
+      <c r="Y12" s="5" t="s">
+        <v>37</v>
+      </c>
       <c r="Z12" s="5"/>
       <c r="AT12" s="14"/>
     </row>
@@ -1139,7 +1159,9 @@
         <v>38</v>
       </c>
       <c r="I14" s="13"/>
-      <c r="Y14" s="7"/>
+      <c r="Y14" s="7" t="s">
+        <v>38</v>
+      </c>
       <c r="Z14" s="7"/>
       <c r="AA14" s="7"/>
       <c r="AT14" s="14"/>
@@ -1165,7 +1187,9 @@
       <c r="H15" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="AB15" s="7"/>
+      <c r="AB15" s="7" t="s">
+        <v>30</v>
+      </c>
       <c r="AC15" s="7"/>
       <c r="AD15" s="7"/>
       <c r="AT15" s="14"/>
@@ -1198,7 +1222,9 @@
       <c r="H17" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="AE17" s="9"/>
+      <c r="AE17" s="9" t="s">
+        <v>39</v>
+      </c>
       <c r="AF17" s="9"/>
       <c r="AG17" s="9"/>
       <c r="AH17" s="9"/>
@@ -1226,7 +1252,9 @@
       <c r="H18" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="AE18" s="9"/>
+      <c r="AE18" s="9" t="s">
+        <v>40</v>
+      </c>
       <c r="AF18" s="9"/>
       <c r="AG18" s="9"/>
       <c r="AH18" s="9"/>
@@ -1254,7 +1282,9 @@
       <c r="H19" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="AE19" s="9"/>
+      <c r="AE19" s="9" t="s">
+        <v>41</v>
+      </c>
       <c r="AF19" s="9"/>
       <c r="AG19" s="9"/>
       <c r="AH19" s="9"/>
@@ -1282,7 +1312,9 @@
       <c r="H20" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="AE20" s="9"/>
+      <c r="AE20" s="9" t="s">
+        <v>42</v>
+      </c>
       <c r="AF20" s="9"/>
       <c r="AG20" s="9"/>
       <c r="AT20" s="14"/>
@@ -1308,7 +1340,9 @@
       <c r="H21" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="AE21" s="9"/>
+      <c r="AE21" s="9" t="s">
+        <v>43</v>
+      </c>
       <c r="AF21" s="9"/>
       <c r="AT21" s="14"/>
     </row>
@@ -1340,7 +1374,9 @@
       <c r="H23" s="11" t="s">
         <v>44</v>
       </c>
-      <c r="AJ23" s="11"/>
+      <c r="AJ23" s="11" t="s">
+        <v>44</v>
+      </c>
       <c r="AK23" s="11"/>
       <c r="AL23" s="11"/>
       <c r="AM23" s="11"/>
@@ -1368,7 +1404,9 @@
       <c r="H24" s="11" t="s">
         <v>45</v>
       </c>
-      <c r="AO24" s="11"/>
+      <c r="AO24" s="11" t="s">
+        <v>45</v>
+      </c>
       <c r="AP24" s="11"/>
       <c r="AQ24" s="11"/>
       <c r="AT24" s="14"/>
@@ -1394,7 +1432,9 @@
       <c r="H25" s="11" t="s">
         <v>46</v>
       </c>
-      <c r="AR25" s="11"/>
+      <c r="AR25" s="11" t="s">
+        <v>46</v>
+      </c>
       <c r="AS25" s="11"/>
       <c r="AT25" s="14"/>
     </row>
